--- a/data/output/BDA6_SCHULE_Gemeinden_Unbekannt.xlsx
+++ b/data/output/BDA6_SCHULE_Gemeinden_Unbekannt.xlsx
@@ -45,10 +45,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
